--- a/config/saveAddress.xlsx
+++ b/config/saveAddress.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,60 +549,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>OUTPUT2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>00002</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>INPUT BIT2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10002</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>ANALOG INPUT2</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>30002</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>HOLDING REGISTER2</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>40002</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
